--- a/doc/04_画面遷移図_美酒乱-Michelin-.xlsx
+++ b/doc/04_画面遷移図_美酒乱-Michelin-.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2462D8FD-A991-4DA4-98D6-D9CA6816FD3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DC7364-FB61-4436-8F6C-E3F8730A4FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19580" yWindow="380" windowWidth="14400" windowHeight="9460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9070" yWindow="0" windowWidth="10530" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
     <sheet name="アイテム" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -230,21 +229,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>496581</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>18119</xdr:rowOff>
+      <xdr:colOff>490797</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>82155</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB2560C8-87AD-430F-BDAD-2C485C2CB880}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048DA6EB-CD72-4523-7070-0717D971C31E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -260,8 +259,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1092200"/>
-          <a:ext cx="15152381" cy="7447619"/>
+          <a:off x="0" y="1257426"/>
+          <a:ext cx="15152381" cy="7438095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -943,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1019,17 +1018,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/04_画面遷移図_美酒乱-Michelin-.xlsx
+++ b/doc/04_画面遷移図_美酒乱-Michelin-.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DC7364-FB61-4436-8F6C-E3F8730A4FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DE601D-47B5-4DF8-813D-D83BD6F6E347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9070" yWindow="0" windowWidth="10530" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10640" yWindow="130" windowWidth="8870" windowHeight="10030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -89,6 +89,19 @@
   </si>
   <si>
     <t>santé!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤尾　熙彦</t>
+    <rPh sb="0" eb="2">
+      <t>フジオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒロシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビコ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -234,16 +247,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>490797</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>82155</xdr:rowOff>
+      <xdr:colOff>109844</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>134936</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048DA6EB-CD72-4523-7070-0717D971C31E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{727D1625-A4EF-1F37-1C8B-C50EE51FE6E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -260,7 +273,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1257426"/>
-          <a:ext cx="15152381" cy="7438095"/>
+          <a:ext cx="14771428" cy="9942857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -942,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -983,13 +996,17 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="5">
+        <v>45086</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">

--- a/doc/04_画面遷移図_美酒乱-Michelin-.xlsx
+++ b/doc/04_画面遷移図_美酒乱-Michelin-.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DE601D-47B5-4DF8-813D-D83BD6F6E347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145BDEC7-3E9C-4C24-8AFF-0B0F36FE1B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10640" yWindow="130" windowWidth="8870" windowHeight="10030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -246,17 +246,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>109844</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>134936</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>243505</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>82155</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{727D1625-A4EF-1F37-1C8B-C50EE51FE6E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DED0191-4FF8-0BE2-1C11-4DC7BBBCF01A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -273,7 +273,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1257426"/>
-          <a:ext cx="14771428" cy="9942857"/>
+          <a:ext cx="14295238" cy="7438095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -956,7 +956,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1005,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="5">
-        <v>45086</v>
+        <v>45090</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.2">
